--- a/data/현행추정부채_자동차/자동차_비례출재_미경과보험료_201912.xlsx
+++ b/data/현행추정부채_자동차/자동차_비례출재_미경과보험료_201912.xlsx
@@ -14,9 +14,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416">
   <si>
-    <t>CLG_YM</t>
-  </si>
-  <si>
     <t>BSC_CVR_CD</t>
   </si>
   <si>
@@ -29,25 +26,505 @@
     <t>INER_CHN_DVCD</t>
   </si>
   <si>
+    <t>USTK_DVCD</t>
+  </si>
+  <si>
     <t>RN_LTPD_URND_PRM</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>20054</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>1</t>
   </si>
   <si>
     <t>02</t>
@@ -56,13 +533,223 @@
     <t>08</t>
   </si>
   <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>20014</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>01</t>
@@ -74,15 +761,75 @@
     <t>20016</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20014</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -92,12 +839,297 @@
     <t>01</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
   </si>
   <si>
     <t>04</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20019</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -107,12 +1139,102 @@
     <t>14</t>
   </si>
   <si>
-    <t>201912</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20055</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
   </si>
   <si>
     <t>04</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -122,192 +1244,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
+    <t>1</t>
   </si>
   <si>
     <t>03</t>
   </si>
   <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20014</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
@@ -317,949 +1259,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20054</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20054</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20054</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20014</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20014</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20019</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20054</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20054</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20014</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20014</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20055</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20016</t>
-  </si>
-  <si>
-    <t>04</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>322823966</v>
+        <v>266217364</v>
       </c>
     </row>
     <row r="5" ht="15">
@@ -1710,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <v>465095371</v>
+        <v>298099310</v>
       </c>
     </row>
     <row r="6" ht="15">
@@ -1730,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>37820976</v>
+        <v>465095371</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -1750,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>73898</v>
+        <v>44171688</v>
       </c>
     </row>
     <row r="8" ht="15">
@@ -1770,7 +1770,7 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>5032</v>
+        <v>776238288</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -1790,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="F9">
-        <v>1585</v>
+        <v>9652568</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -1810,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>7802</v>
+        <v>2628179</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -1830,7 +1830,7 @@
         <v>55</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1725450</v>
       </c>
     </row>
     <row r="12" ht="15">
@@ -1850,7 +1850,7 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -1890,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="F14">
-        <v>266217364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="15">
@@ -1910,7 +1910,7 @@
         <v>75</v>
       </c>
       <c r="F15">
-        <v>3857689</v>
+        <v>76312286</v>
       </c>
     </row>
     <row r="16" ht="15">
@@ -1930,7 +1930,7 @@
         <v>80</v>
       </c>
       <c r="F16">
-        <v>110851222</v>
+        <v>322823966</v>
       </c>
     </row>
     <row r="17" ht="15">
@@ -1950,7 +1950,7 @@
         <v>85</v>
       </c>
       <c r="F17">
-        <v>9294522</v>
+        <v>103831877</v>
       </c>
     </row>
     <row r="18" ht="15">
@@ -1970,7 +1970,7 @@
         <v>90</v>
       </c>
       <c r="F18">
-        <v>2628179</v>
+        <v>481095</v>
       </c>
     </row>
     <row r="19" ht="15">
@@ -1990,7 +1990,7 @@
         <v>95</v>
       </c>
       <c r="F19">
-        <v>11370813</v>
+        <v>73898</v>
       </c>
     </row>
     <row r="20" ht="15">
@@ -2010,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>399979</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="21" ht="15">
@@ -2030,7 +2030,7 @@
         <v>105</v>
       </c>
       <c r="F21">
-        <v>1044053</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="22" ht="15">
@@ -2050,7 +2050,7 @@
         <v>110</v>
       </c>
       <c r="F22">
-        <v>6695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="15">
@@ -2070,7 +2070,7 @@
         <v>115</v>
       </c>
       <c r="F23">
-        <v>102461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="15">
@@ -2090,7 +2090,7 @@
         <v>120</v>
       </c>
       <c r="F24">
-        <v>1686</v>
+        <v>3857689</v>
       </c>
     </row>
     <row r="25" ht="15">
@@ -2110,7 +2110,7 @@
         <v>125</v>
       </c>
       <c r="F25">
-        <v>18523</v>
+        <v>92412271</v>
       </c>
     </row>
     <row r="26" ht="15">
@@ -2130,7 +2130,7 @@
         <v>130</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>330702830</v>
       </c>
     </row>
     <row r="27" ht="15">
@@ -2150,7 +2150,7 @@
         <v>135</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>37820976</v>
       </c>
     </row>
     <row r="28" ht="15">
@@ -2170,7 +2170,7 @@
         <v>140</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>173668768</v>
       </c>
     </row>
     <row r="29" ht="15">
@@ -2190,7 +2190,7 @@
         <v>145</v>
       </c>
       <c r="F29">
-        <v>8239495</v>
+        <v>493550240</v>
       </c>
     </row>
     <row r="30" ht="15">
@@ -2210,7 +2210,7 @@
         <v>150</v>
       </c>
       <c r="F30">
-        <v>227151855</v>
+        <v>362840</v>
       </c>
     </row>
     <row r="31" ht="15">
@@ -2230,7 +2230,7 @@
         <v>155</v>
       </c>
       <c r="F31">
-        <v>224228025</v>
+        <v>19257</v>
       </c>
     </row>
     <row r="32" ht="15">
@@ -2250,7 +2250,7 @@
         <v>160</v>
       </c>
       <c r="F32">
-        <v>969516398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="15">
@@ -2270,7 +2270,7 @@
         <v>165</v>
       </c>
       <c r="F33">
-        <v>57721425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="15">
@@ -2290,7 +2290,7 @@
         <v>170</v>
       </c>
       <c r="F34">
-        <v>1329007327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="15">
@@ -2310,7 +2310,7 @@
         <v>175</v>
       </c>
       <c r="F35">
-        <v>362840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="15">
@@ -2330,7 +2330,7 @@
         <v>180</v>
       </c>
       <c r="F36">
-        <v>3626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -2350,7 +2350,7 @@
         <v>185</v>
       </c>
       <c r="F37">
-        <v>5166</v>
+        <v>692232541</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -2370,7 +2370,7 @@
         <v>190</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3692370</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -2390,7 +2390,7 @@
         <v>195</v>
       </c>
       <c r="F39">
-        <v>330702830</v>
+        <v>139065</v>
       </c>
     </row>
     <row r="40" ht="15">
@@ -2410,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="F40">
-        <v>622660350</v>
+        <v>11370813</v>
       </c>
     </row>
     <row r="41" ht="15">
@@ -2430,7 +2430,7 @@
         <v>205</v>
       </c>
       <c r="F41">
-        <v>24835486</v>
+        <v>492038</v>
       </c>
     </row>
     <row r="42" ht="15">
@@ -2450,7 +2450,7 @@
         <v>210</v>
       </c>
       <c r="F42">
-        <v>139065</v>
+        <v>102461</v>
       </c>
     </row>
     <row r="43" ht="15">
@@ -2490,7 +2490,7 @@
         <v>220</v>
       </c>
       <c r="F44">
-        <v>19257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="15">
@@ -2510,7 +2510,7 @@
         <v>225</v>
       </c>
       <c r="F45">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="15">
@@ -2590,7 +2590,7 @@
         <v>245</v>
       </c>
       <c r="F49">
-        <v>493550240</v>
+        <v>1329007327</v>
       </c>
     </row>
     <row r="50" ht="15">
@@ -2610,7 +2610,7 @@
         <v>250</v>
       </c>
       <c r="F50">
-        <v>9652568</v>
+        <v>18523</v>
       </c>
     </row>
     <row r="51" ht="15">
@@ -2630,7 +2630,7 @@
         <v>255</v>
       </c>
       <c r="F51">
-        <v>2187916</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="52" ht="15">
@@ -2650,7 +2650,7 @@
         <v>260</v>
       </c>
       <c r="F52">
-        <v>7504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="15">
@@ -2670,7 +2670,7 @@
         <v>265</v>
       </c>
       <c r="F53">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="15">
@@ -2690,7 +2690,7 @@
         <v>270</v>
       </c>
       <c r="F54">
-        <v>3189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="15">
@@ -2710,7 +2710,7 @@
         <v>275</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>428245269</v>
       </c>
     </row>
     <row r="56" ht="15">
@@ -2730,7 +2730,7 @@
         <v>280</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>8239495</v>
       </c>
     </row>
     <row r="57" ht="15">
@@ -2750,7 +2750,7 @@
         <v>285</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>82187993</v>
       </c>
     </row>
     <row r="58" ht="15">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="F58">
-        <v>692232541</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="59" ht="15">
@@ -2790,7 +2790,7 @@
         <v>295</v>
       </c>
       <c r="F59">
-        <v>103831877</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="60" ht="15">
@@ -2810,7 +2810,7 @@
         <v>300</v>
       </c>
       <c r="F60">
-        <v>481095</v>
+        <v>57691</v>
       </c>
     </row>
     <row r="61" ht="15">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="F61">
-        <v>492038</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="62" ht="15">
@@ -2850,7 +2850,7 @@
         <v>310</v>
       </c>
       <c r="F62">
-        <v>1725450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="15">
@@ -2890,7 +2890,7 @@
         <v>320</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>969516398</v>
       </c>
     </row>
     <row r="65" ht="15">
@@ -2910,7 +2910,7 @@
         <v>325</v>
       </c>
       <c r="F65">
-        <v>298099310</v>
+        <v>110851222</v>
       </c>
     </row>
     <row r="66" ht="15">
@@ -2930,7 +2930,7 @@
         <v>330</v>
       </c>
       <c r="F66">
-        <v>76312286</v>
+        <v>9294522</v>
       </c>
     </row>
     <row r="67" ht="15">
@@ -2950,7 +2950,7 @@
         <v>335</v>
       </c>
       <c r="F67">
-        <v>428245269</v>
+        <v>24835486</v>
       </c>
     </row>
     <row r="68" ht="15">
@@ -2970,7 +2970,7 @@
         <v>340</v>
       </c>
       <c r="F68">
-        <v>477579183</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="69" ht="15">
@@ -2990,7 +2990,7 @@
         <v>345</v>
       </c>
       <c r="F69">
-        <v>44171688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="70" ht="15">
@@ -3010,7 +3010,7 @@
         <v>350</v>
       </c>
       <c r="F70">
-        <v>776238288</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="71" ht="15">
@@ -3030,7 +3030,7 @@
         <v>355</v>
       </c>
       <c r="F71">
-        <v>809</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="15">
@@ -3050,7 +3050,7 @@
         <v>360</v>
       </c>
       <c r="F72">
-        <v>57691</v>
+        <v>809</v>
       </c>
     </row>
     <row r="73" ht="15">
@@ -3110,7 +3110,7 @@
         <v>375</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>227151855</v>
       </c>
     </row>
     <row r="76" ht="15">
@@ -3130,7 +3130,7 @@
         <v>380</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>224228025</v>
       </c>
     </row>
     <row r="77" ht="15">
@@ -3150,7 +3150,7 @@
         <v>385</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>477579183</v>
       </c>
     </row>
     <row r="78" ht="15">
@@ -3170,7 +3170,7 @@
         <v>390</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>57721425</v>
       </c>
     </row>
     <row r="79" ht="15">
@@ -3190,7 +3190,7 @@
         <v>395</v>
       </c>
       <c r="F79">
-        <v>92412271</v>
+        <v>5041256</v>
       </c>
     </row>
     <row r="80" ht="15">
@@ -3210,7 +3210,7 @@
         <v>400</v>
       </c>
       <c r="F80">
-        <v>173668768</v>
+        <v>622660350</v>
       </c>
     </row>
     <row r="81" ht="15">
@@ -3230,7 +3230,7 @@
         <v>405</v>
       </c>
       <c r="F81">
-        <v>3692370</v>
+        <v>2187916</v>
       </c>
     </row>
     <row r="82" ht="15">
@@ -3250,7 +3250,7 @@
         <v>410</v>
       </c>
       <c r="F82">
-        <v>5041256</v>
+        <v>399979</v>
       </c>
     </row>
     <row r="83" ht="15">
@@ -3270,7 +3270,7 @@
         <v>415</v>
       </c>
       <c r="F83">
-        <v>82187993</v>
+        <v>1044053</v>
       </c>
     </row>
   </sheetData>
